--- a/data/dataDriven/loginPageTestCase.xlsx
+++ b/data/dataDriven/loginPageTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>用例编号</t>
   </si>
@@ -44,6 +44,9 @@
     <t>输入数据</t>
   </si>
   <si>
+    <t>元素名称</t>
+  </si>
+  <si>
     <t>s_001</t>
   </si>
   <si>
@@ -56,12 +59,18 @@
     <t>loginPage</t>
   </si>
   <si>
+    <t>userNameInput</t>
+  </si>
+  <si>
     <t>s_002</t>
   </si>
   <si>
     <t>输入密码</t>
   </si>
   <si>
+    <t>passwordInput</t>
+  </si>
+  <si>
     <t>s_003</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
     <t>click</t>
   </si>
   <si>
+    <t>loginBut</t>
+  </si>
+  <si>
     <t>s_004</t>
   </si>
   <si>
@@ -78,6 +90,9 @@
   </si>
   <si>
     <t>getText</t>
+  </si>
+  <si>
+    <t>homeTitle</t>
   </si>
 </sst>
 </file>
@@ -85,12 +100,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,82 +114,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,9 +205,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,45 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +465,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,21 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -503,26 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,8 +538,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,148 +563,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,11 +1066,11 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="20.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1094,21 +1102,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="28.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="16.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="28.775" customWidth="1"/>
+    <col min="3" max="3" width="23.1083333333333" customWidth="1"/>
+    <col min="5" max="6" width="16.775" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1125,75 +1133,90 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataDriven/loginPageTestCase.xlsx
+++ b/data/dataDriven/loginPageTestCase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
     <sheet name="caseStep" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>用例编号</t>
   </si>
@@ -26,73 +27,100 @@
     <t>执行结果</t>
   </si>
   <si>
+    <t>loginPage_loginSuccess_02</t>
+  </si>
+  <si>
+    <t>用户名为空校验</t>
+  </si>
+  <si>
+    <t>步骤编号</t>
+  </si>
+  <si>
+    <t>步骤描述</t>
+  </si>
+  <si>
+    <t>执行动作</t>
+  </si>
+  <si>
+    <t>输入数据</t>
+  </si>
+  <si>
+    <t>元素名称</t>
+  </si>
+  <si>
+    <t>s_001</t>
+  </si>
+  <si>
     <t>loginPage_loginSuccess_01</t>
   </si>
   <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>sendKey</t>
+  </si>
+  <si>
+    <t>loginPage</t>
+  </si>
+  <si>
+    <t>userNameInput</t>
+  </si>
+  <si>
+    <t>s_002</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>passwordInput</t>
+  </si>
+  <si>
+    <t>s_003</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>loginBut</t>
+  </si>
+  <si>
+    <t>s_004</t>
+  </si>
+  <si>
+    <t>验证是否跳转到主页面</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>homeTitle</t>
+  </si>
+  <si>
+    <t>s_005</t>
+  </si>
+  <si>
+    <t>s_006</t>
+  </si>
+  <si>
+    <t>s_007</t>
+  </si>
+  <si>
+    <t>获取提示信息</t>
+  </si>
+  <si>
+    <t>getToast</t>
+  </si>
+  <si>
+    <t>toastMsg</t>
+  </si>
+  <si>
     <t>登录成功流程校验</t>
   </si>
   <si>
-    <t>步骤编号</t>
-  </si>
-  <si>
-    <t>步骤描述</t>
-  </si>
-  <si>
-    <t>执行动作</t>
-  </si>
-  <si>
-    <t>输入数据</t>
-  </si>
-  <si>
-    <t>元素名称</t>
-  </si>
-  <si>
-    <t>s_001</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>sendKey</t>
-  </si>
-  <si>
-    <t>loginPage</t>
-  </si>
-  <si>
-    <t>userNameInput</t>
-  </si>
-  <si>
-    <t>s_002</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>passwordInput</t>
-  </si>
-  <si>
-    <t>s_003</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>loginBut</t>
-  </si>
-  <si>
-    <t>s_004</t>
-  </si>
-  <si>
-    <t>验证是否跳转到主页面</t>
-  </si>
-  <si>
-    <t>getText</t>
-  </si>
-  <si>
-    <t>homeTitle</t>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -100,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -115,14 +143,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,14 +240,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,30 +264,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,59 +285,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,20 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +510,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,21 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +577,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,145 +594,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1091,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1102,13 +1130,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="28.775" customWidth="1"/>
     <col min="3" max="3" width="23.1083333333333" customWidth="1"/>
@@ -1144,79 +1172,139 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1224,4 +1312,36 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/dataDriven/loginPageTestCase.xlsx
+++ b/data/dataDriven/loginPageTestCase.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="9390" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
     <sheet name="caseStep" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>用例编号</t>
   </si>
@@ -27,10 +26,10 @@
     <t>执行结果</t>
   </si>
   <si>
-    <t>loginPage_loginSuccess_02</t>
-  </si>
-  <si>
-    <t>用户名为空校验</t>
+    <t>loginPage_01</t>
+  </si>
+  <si>
+    <t>登录流程</t>
   </si>
   <si>
     <t>步骤编号</t>
@@ -42,30 +41,30 @@
     <t>执行动作</t>
   </si>
   <si>
+    <t>元素名称</t>
+  </si>
+  <si>
     <t>输入数据</t>
   </si>
   <si>
-    <t>元素名称</t>
+    <t>预期结果</t>
   </si>
   <si>
     <t>s_001</t>
   </si>
   <si>
-    <t>loginPage_loginSuccess_01</t>
-  </si>
-  <si>
     <t>输入用户名</t>
   </si>
   <si>
     <t>sendKey</t>
   </si>
   <si>
-    <t>loginPage</t>
-  </si>
-  <si>
     <t>userNameInput</t>
   </si>
   <si>
+    <t>likg_java</t>
+  </si>
+  <si>
     <t>s_002</t>
   </si>
   <si>
@@ -75,6 +74,9 @@
     <t>passwordInput</t>
   </si>
   <si>
+    <t>meimima</t>
+  </si>
+  <si>
     <t>s_003</t>
   </si>
   <si>
@@ -99,28 +101,7 @@
     <t>homeTitle</t>
   </si>
   <si>
-    <t>s_005</t>
-  </si>
-  <si>
-    <t>s_006</t>
-  </si>
-  <si>
-    <t>s_007</t>
-  </si>
-  <si>
-    <t>获取提示信息</t>
-  </si>
-  <si>
-    <t>getToast</t>
-  </si>
-  <si>
-    <t>toastMsg</t>
-  </si>
-  <si>
-    <t>登录成功流程校验</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>头条</t>
   </si>
 </sst>
 </file>
@@ -128,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,7 +124,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,28 +150,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,6 +162,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,28 +184,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,55 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,49 +276,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,133 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +467,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,11 +511,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,41 +527,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,12 +1072,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="20.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
   </cols>
@@ -1130,21 +1111,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="28.775" customWidth="1"/>
-    <col min="3" max="3" width="23.1083333333333" customWidth="1"/>
-    <col min="5" max="6" width="16.775" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1164,15 +1149,18 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1192,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1201,110 +1189,47 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1312,36 +1237,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/data/dataDriven/loginPageTestCase.xlsx
+++ b/data/dataDriven/loginPageTestCase.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" tabRatio="652" activeTab="1"/>
+    <workbookView activeTab="1" tabRatio="652" windowHeight="9924" windowWidth="22368"/>
   </bookViews>
   <sheets>
-    <sheet name="testCase" sheetId="1" r:id="rId1"/>
-    <sheet name="caseStep" sheetId="2" r:id="rId2"/>
+    <sheet name="testCase" r:id="rId1" sheetId="1"/>
+    <sheet name="caseStep" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="1">
   <si>
     <t>用例编号</t>
   </si>
@@ -32,6 +32,9 @@
     <t>登录流程</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>步骤编号</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>头条</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -109,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,7 +130,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,19 +205,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,21 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,84 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,16 +477,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,8 +494,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,15 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,226 +551,235 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="26" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="5" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="25" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -787,10 +793,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -948,7 +954,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -957,13 +963,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -973,7 +979,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -982,7 +988,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -991,7 +997,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1001,12 +1007,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1037,7 +1043,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1056,7 +1062,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1067,19 +1073,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="20.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5555555555556" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1093,63 +1099,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.87962962962963" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.37962962962963" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.8796296296296" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.3796296296296" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.66666666666667" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.8796296296296" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1157,84 +1166,96 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/dataDriven/loginPageTestCase.xlsx
+++ b/data/dataDriven/loginPageTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="652" windowHeight="9924" windowWidth="22368"/>
+    <workbookView tabRatio="652" windowHeight="9390" windowWidth="20385"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" r:id="rId1" sheetId="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="2">
   <si>
     <t>用例编号</t>
   </si>
@@ -32,82 +32,82 @@
     <t>登录流程</t>
   </si>
   <si>
+    <t>步骤编号</t>
+  </si>
+  <si>
+    <t>步骤描述</t>
+  </si>
+  <si>
+    <t>执行动作</t>
+  </si>
+  <si>
+    <t>元素名称</t>
+  </si>
+  <si>
+    <t>输入数据</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>s_001</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>sendKey</t>
+  </si>
+  <si>
+    <t>userNameInput</t>
+  </si>
+  <si>
+    <t>likg_java</t>
+  </si>
+  <si>
+    <t>s_002</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>passwordInput</t>
+  </si>
+  <si>
+    <t>meimima</t>
+  </si>
+  <si>
+    <t>s_003</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>loginBut</t>
+  </si>
+  <si>
+    <t>s_004</t>
+  </si>
+  <si>
+    <t>验证是否跳转到主页面</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>homeTitle</t>
+  </si>
+  <si>
+    <t>头条</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>步骤编号</t>
-  </si>
-  <si>
-    <t>步骤描述</t>
-  </si>
-  <si>
-    <t>执行动作</t>
-  </si>
-  <si>
-    <t>元素名称</t>
-  </si>
-  <si>
-    <t>输入数据</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>s_001</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>sendKey</t>
-  </si>
-  <si>
-    <t>userNameInput</t>
-  </si>
-  <si>
-    <t>likg_java</t>
-  </si>
-  <si>
-    <t>s_002</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>passwordInput</t>
-  </si>
-  <si>
-    <t>meimima</t>
-  </si>
-  <si>
-    <t>s_003</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>loginBut</t>
-  </si>
-  <si>
-    <t>s_004</t>
-  </si>
-  <si>
-    <t>验证是否跳转到主页面</t>
-  </si>
-  <si>
-    <t>getText</t>
-  </si>
-  <si>
-    <t>homeTitle</t>
-  </si>
-  <si>
-    <t>头条</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -136,6 +136,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -144,11 +151,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,21 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -192,21 +198,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,9 +243,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,37 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,25 +282,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,61 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,91 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,15 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -517,15 +508,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -535,17 +517,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,11 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="13" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="9" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -593,133 +593,133 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="16" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="27" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="26" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="5" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="25" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,15 +1077,15 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="13.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5555555555556" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.4444444444444" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5583333333333" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.4416666666667" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1122,43 +1122,43 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.87962962962963" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.88333333333333" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="13.75" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="21.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.37962962962963" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.8796296296296" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.3796296296296" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.38333333333333" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.8833333333333" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.3833333333333" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="9.66666666666667" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.8796296296296" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.8833333333333" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1166,88 +1166,88 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>

--- a/data/dataDriven/loginPageTestCase.xlsx
+++ b/data/dataDriven/loginPageTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView tabRatio="652" windowHeight="9390" windowWidth="20385"/>
+    <workbookView activeTab="1" tabRatio="652" windowHeight="9924" windowWidth="22368"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" r:id="rId1" sheetId="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="0">
   <si>
     <t>用例编号</t>
   </si>
@@ -32,6 +32,9 @@
     <t>登录流程</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>步骤编号</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>预期结果</t>
   </si>
   <si>
+    <t>步骤截图</t>
+  </si>
+  <si>
     <t>s_001</t>
   </si>
   <si>
@@ -102,12 +108,6 @@
   </si>
   <si>
     <t>头条</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -137,6 +144,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,14 +166,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,9 +225,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,90 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -282,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +483,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,20 +524,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,24 +557,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +588,10 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="9" fontId="5" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="20" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -593,140 +600,141 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="16" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="27" fontId="18" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="28" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1077,15 +1085,15 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="13.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5583333333333" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.4416666666667" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5555555555556" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1099,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1120,138 +1128,146 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.88333333333333" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.87962962962963" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="13.75" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="21.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.38333333333333" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.8833333333333" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.3833333333333" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.37962962962963" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.8796296296296" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.3796296296296" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="9.66666666666667" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.8833333333333" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.8796296296296" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.66666666666667" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
